--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -2314,7 +2314,7 @@
     <t>|HE100 - Base-case Building and Mechanical Systems|</t>
   </si>
   <si>
-    <t>BESTEST Heating 06708b</t>
+    <t>BESTEST Heating 06712b (1.12.1 run)</t>
   </si>
 </sst>
 </file>

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20460" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2314,7 +2314,7 @@
     <t>|HE100 - Base-case Building and Mechanical Systems|</t>
   </si>
   <si>
-    <t>BESTEST Heating 06712b (1.12.1 run)</t>
+    <t>BESTEST Heating 06712d (hvac wtih oa)</t>
   </si>
 </sst>
 </file>

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -2314,7 +2314,7 @@
     <t>|HE100 - Base-case Building and Mechanical Systems|</t>
   </si>
   <si>
-    <t>BESTEST Heating 06712d (hvac wtih oa)</t>
+    <t>BESTEST Heating 06713c (supply airflow rate method)</t>
   </si>
 </sst>
 </file>

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562"/>
@@ -2286,15 +2286,6 @@
     <t>../weather/USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
   </si>
   <si>
-    <t>BESTEST Building Thermal Envelope and Fabric Load Reports</t>
-  </si>
-  <si>
-    <t>BESTESTBuildingThermalEnvelopeAndFabricLoadReports</t>
-  </si>
-  <si>
-    <t>bestest_building_thermal_envelope_and_fabric_load_reports</t>
-  </si>
-  <si>
     <t>BESTEST Space Heating Equipment Performance Tests</t>
   </si>
   <si>
@@ -2314,7 +2305,16 @@
     <t>|HE100 - Base-case Building and Mechanical Systems|</t>
   </si>
   <si>
-    <t>BESTEST Heating 06713c (supply airflow rate method)</t>
+    <t>BESBESTEST HE Reporting</t>
+  </si>
+  <si>
+    <t>BESTESTHEReporting</t>
+  </si>
+  <si>
+    <t>bestesthe_reporting</t>
+  </si>
+  <si>
+    <t>BESTEST Heating 060803a (stub reporting measure)</t>
   </si>
 </sst>
 </file>
@@ -6036,7 +6036,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6665,7 +6665,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6849,13 +6849,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>67</v>
@@ -6900,26 +6900,26 @@
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="43" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="37" t="s">
@@ -6936,16 +6936,16 @@
     </row>
     <row r="6" spans="1:26" s="39" customFormat="1" ht="15">
       <c r="A6" s="36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>232</v>

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" tabRatio="562"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20460" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="743">
   <si>
     <t>type</t>
   </si>
@@ -2008,99 +2008,6 @@
   </si>
   <si>
     <t>m2</t>
-  </si>
-  <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Total Life Cycle Cost</t>
-  </si>
-  <si>
-    <t>standard_report.total_life_cycle_cost</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
   <si>
     <t>NG EUI</t>
@@ -2305,16 +2212,64 @@
     <t>|HE100 - Base-case Building and Mechanical Systems|</t>
   </si>
   <si>
-    <t>BESBESTEST HE Reporting</t>
-  </si>
-  <si>
     <t>BESTESTHEReporting</t>
   </si>
   <si>
-    <t>bestesthe_reporting</t>
-  </si>
-  <si>
-    <t>BESTEST Heating 060803a (stub reporting measure)</t>
+    <t>Min Temp</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Max Temp</t>
+  </si>
+  <si>
+    <t>Avg Temp</t>
+  </si>
+  <si>
+    <t>Fan Energy</t>
+  </si>
+  <si>
+    <t>Furnace Load</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>Furnace Input</t>
+  </si>
+  <si>
+    <t>Fuel Consumption</t>
+  </si>
+  <si>
+    <t>BESTEST HE Reporting</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.mean_zone_temperature</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.maximum_zone_temperature</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.minimum_zone_temperature</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.fan_energy</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.furnace_load</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.furnace_input</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.fuel_consumption</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting</t>
+  </si>
+  <si>
+    <t>BESTEST Heating 060805a (temp min max)</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1571">
+  <cellStyleXfs count="1583">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4064,8 +4019,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4159,11 +4126,12 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1571">
+  <cellStyles count="1583">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4949,6 +4917,12 @@
     <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5734,6 +5708,12 @@
     <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6036,7 +6016,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6074,7 +6054,7 @@
         <v>435</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>436</v>
@@ -6085,7 +6065,7 @@
         <v>457</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>458</v>
@@ -6096,7 +6076,7 @@
         <v>468</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>609</v>
@@ -6107,7 +6087,7 @@
         <v>469</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>471</v>
@@ -6175,21 +6155,21 @@
         <v>$1.96/hour</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="22" customFormat="1" ht="28">
       <c r="A10" s="22" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="2" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1">
@@ -6207,7 +6187,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>470</v>
@@ -6218,7 +6198,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6538,7 +6518,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="2" customFormat="1" ht="28">
@@ -6564,13 +6544,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>449</v>
@@ -6594,18 +6574,18 @@
     </row>
     <row r="46" spans="1:6" s="2" customFormat="1" ht="56">
       <c r="A46" s="6" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="8" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="2" customFormat="1">
@@ -6620,18 +6600,18 @@
     </row>
     <row r="49" spans="1:6" s="2" customFormat="1" ht="42">
       <c r="A49" s="6" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="8" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -6721,14 +6701,14 @@
       <c r="R1" s="29"/>
       <c r="S1" s="26"/>
       <c r="T1" s="26"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A2" s="30" t="s">
@@ -6849,13 +6829,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>67</v>
@@ -6889,10 +6869,10 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37" t="s">
@@ -6900,30 +6880,30 @@
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="43" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="37" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
@@ -6939,13 +6919,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>232</v>
@@ -8309,7 +8289,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8428,7 +8408,7 @@
         <v>626</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>627</v>
@@ -8463,7 +8443,7 @@
         <v>629</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>630</v>
@@ -8495,19 +8475,19 @@
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" s="22" customFormat="1">
       <c r="A6" s="15" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>63</v>
@@ -8533,7 +8513,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>651</v>
@@ -8545,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15" t="b">
         <v>0</v>
@@ -8562,7 +8542,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>651</v>
@@ -8574,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15" t="b">
         <v>0</v>
@@ -8591,7 +8571,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>651</v>
@@ -8603,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="15" t="b">
         <v>0</v>
@@ -8620,7 +8600,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>655</v>
@@ -8632,7 +8612,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="15" t="b">
         <v>0</v>
@@ -8643,27 +8623,26 @@
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1">
-      <c r="A11" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="A11" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="D11" s="45" t="s">
+        <v>734</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15" t="b">
+      <c r="G11" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="15" t="b">
+      <c r="H11" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J11" s="15"/>
@@ -8672,27 +8651,26 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13" s="22" customFormat="1">
-      <c r="A12" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" s="15" t="s">
+      <c r="A12" s="45" t="s">
+        <v>726</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="D12" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15" t="b">
+      <c r="G12" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="15" t="b">
+      <c r="H12" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J12" s="15"/>
@@ -8701,27 +8679,26 @@
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1">
-      <c r="A13" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F13" s="15" t="s">
+      <c r="A13" s="45" t="s">
+        <v>727</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="D13" s="45" t="s">
+        <v>736</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15" t="b">
+      <c r="G13" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="15" t="b">
+      <c r="H13" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="15"/>
@@ -8731,26 +8708,26 @@
     </row>
     <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>662</v>
+        <v>728</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F14" s="15" t="s">
+      <c r="D14" s="45" t="s">
+        <v>737</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15" t="b">
+      <c r="G14" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="15" t="b">
+      <c r="H14" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J14" s="15"/>
@@ -8760,26 +8737,26 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>664</v>
+        <v>729</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>730</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15" t="b">
+      <c r="G15" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="15" t="b">
+      <c r="H15" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="15"/>
@@ -8789,26 +8766,24 @@
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>666</v>
+        <v>731</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F16" s="15" t="s">
+      <c r="D16" s="45" t="s">
+        <v>739</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15" t="b">
+      <c r="G16" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="15" t="b">
+      <c r="H16" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="15"/>
@@ -8818,26 +8793,24 @@
     </row>
     <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="D17" s="45" t="s">
+        <v>740</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15" t="b">
+      <c r="G17" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="b">
+      <c r="H17" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="45" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="15"/>
@@ -8846,232 +8819,120 @@
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" s="21" customFormat="1">
-      <c r="A18" s="15" t="s">
-        <v>670</v>
-      </c>
+      <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" s="21" customFormat="1">
-      <c r="A19" s="15" t="s">
-        <v>672</v>
-      </c>
+      <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" s="21" customFormat="1">
-      <c r="A20" s="15" t="s">
-        <v>674</v>
-      </c>
+      <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" s="21" customFormat="1">
-      <c r="A21" s="15" t="s">
-        <v>676</v>
-      </c>
+      <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1">
-      <c r="A22" s="15" t="s">
-        <v>678</v>
-      </c>
+      <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" s="22" customFormat="1">
-      <c r="A23" s="15" t="s">
-        <v>680</v>
-      </c>
+      <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" s="22" customFormat="1">
-      <c r="A24" s="15" t="s">
-        <v>682</v>
-      </c>
+      <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:13" s="22" customFormat="1">
-      <c r="A25" s="15" t="s">
-        <v>684</v>
-      </c>
+      <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -17573,7 +17434,7 @@
         <v>642</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="21" customFormat="1">
@@ -17590,7 +17451,7 @@
         <v>640</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="21" customFormat="1">
@@ -17607,7 +17468,7 @@
         <v>641</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="21" customFormat="1">
@@ -17624,7 +17485,7 @@
         <v>643</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -17641,7 +17502,7 @@
         <v>645</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1"/>
@@ -17694,7 +17555,7 @@
         <v>548</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -17714,18 +17575,18 @@
         <v>551</v>
       </c>
       <c r="X18" s="21" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="AD18" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="AG18" s="21" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
@@ -17735,13 +17596,13 @@
         <v>548</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="G19" s="21">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="I19" t="s">
         <v>569</v>
@@ -17780,16 +17641,16 @@
         <v>578</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="Y19" s="21" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="Z19" s="21" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="AD19" s="21" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="AE19" s="21">
         <v>30</v>
@@ -17798,27 +17659,27 @@
         <v>587</v>
       </c>
       <c r="AG19" s="21" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="AH19" s="21" t="b">
         <v>1</v>
       </c>
       <c r="AI19" s="21" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="21" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="G20" s="21">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="I20" t="s">
         <v>4</v>
@@ -17863,16 +17724,16 @@
         <v>2</v>
       </c>
       <c r="Z20" s="21" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="AG20" s="21" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="AH20" s="21" t="b">
         <v>1</v>
       </c>
       <c r="AI20" s="21" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -17880,7 +17741,7 @@
         <v>15</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="G21" s="21">
         <v>1</v>
@@ -17922,10 +17783,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>557</v>
@@ -17969,13 +17830,13 @@
         <v>539</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="P23" s="21">
         <v>1</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="R23" s="22" t="s">
         <v>566</v>
@@ -18030,13 +17891,13 @@
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
       <c r="L25" s="21" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="M25" s="22">
         <v>0</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>537</v>
@@ -18048,18 +17909,18 @@
         <v>576</v>
       </c>
       <c r="R25" s="22" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="S25" s="21">
         <v>2</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -18082,7 +17943,7 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -18108,7 +17969,7 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -18123,18 +17984,18 @@
         <v>573</v>
       </c>
       <c r="R28" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="S28" s="22">
         <v>0</v>
       </c>
       <c r="T28" s="22" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="21" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -18165,13 +18026,13 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="O31" s="21" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="P31" s="22">
         <v>0</v>
       </c>
       <c r="Q31" s="22" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -18179,13 +18040,13 @@
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
       <c r="O32" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="P32" s="22">
         <v>1</v>
       </c>
       <c r="Q32" s="22" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="33600" windowHeight="20460" tabRatio="562"/>
+    <workbookView xWindow="25600" yWindow="-20" windowWidth="25600" windowHeight="28260" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2257,19 +2257,19 @@
     <t>bestest_he_reporting.fan_energy</t>
   </si>
   <si>
-    <t>bestest_he_reporting.furnace_load</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.furnace_input</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.fuel_consumption</t>
-  </si>
-  <si>
     <t>bestest_he_reporting</t>
   </si>
   <si>
-    <t>BESTEST Heating 060805a (temp min max)</t>
+    <t>BESTEST Heating 060906 (updated outputs tab)</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.total_furnace_load</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.total_furnace_input</t>
+  </si>
+  <si>
+    <t>bestest_he_reporting.average_fuel_consumption</t>
   </si>
 </sst>
 </file>
@@ -6015,7 +6015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -6187,7 +6187,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>470</v>
@@ -6922,7 +6922,7 @@
         <v>733</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>723</v>
@@ -8287,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -8742,7 +8742,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="45" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>730</v>
@@ -8771,7 +8771,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="45" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="45" t="s">
@@ -8798,7 +8798,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="45" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="45" t="s">

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-20" windowWidth="25600" windowHeight="28260" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2260,9 +2260,6 @@
     <t>bestest_he_reporting</t>
   </si>
   <si>
-    <t>BESTEST Heating 060906 (updated outputs tab)</t>
-  </si>
-  <si>
     <t>bestest_he_reporting.total_furnace_load</t>
   </si>
   <si>
@@ -2270,6 +2267,9 @@
   </si>
   <si>
     <t>bestest_he_reporting.average_fuel_consumption</t>
+  </si>
+  <si>
+    <t>BESTEST Heating 061027b (fixing case 170)</t>
   </si>
 </sst>
 </file>
@@ -6015,8 +6015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6187,7 +6187,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>470</v>
@@ -8287,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
@@ -8742,7 +8742,7 @@
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="45" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>730</v>
@@ -8771,7 +8771,7 @@
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="45" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="45" t="s">
@@ -8798,7 +8798,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="45" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="45" t="s">

--- a/integration_testing/projects/bestest_HE01.xlsx
+++ b/integration_testing/projects/bestest_HE01.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
+    <workbookView xWindow="25600" yWindow="-20" windowWidth="25600" windowHeight="28260" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2193,15 +2193,6 @@
     <t>../weather/USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
   </si>
   <si>
-    <t>BESTEST Space Heating Equipment Performance Tests</t>
-  </si>
-  <si>
-    <t>bestest_space_heating_equipment_performance_tests</t>
-  </si>
-  <si>
-    <t>BESTESTSpaceHeatingEquipmentPerformanceTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">["HE100 - Base-case Building and Mechanical Systems","HE110 - Efficiency Test","HE120 - Stead Par-Load Test","HE130 - No-Load Test","HE140 - Periodically Varying Part-Load Test","HE150 - Circulating Fan Test","HE160 - Cycling Circulating Fan Test","HE170 - Draft Fan Test","HE210 - Realistic Weather Data","HE220 - Setback Thermostat","HE230 - Undersized Furnace"]
 </t>
   </si>
@@ -2212,9 +2203,6 @@
     <t>|HE100 - Base-case Building and Mechanical Systems|</t>
   </si>
   <si>
-    <t>BESTESTHEReporting</t>
-  </si>
-  <si>
     <t>Min Temp</t>
   </si>
   <si>
@@ -2242,34 +2230,46 @@
     <t>Fuel Consumption</t>
   </si>
   <si>
-    <t>BESTEST HE Reporting</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.mean_zone_temperature</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.maximum_zone_temperature</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.minimum_zone_temperature</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.fan_energy</t>
-  </si>
-  <si>
     <t>bestest_he_reporting</t>
   </si>
   <si>
-    <t>bestest_he_reporting.total_furnace_load</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.total_furnace_input</t>
-  </si>
-  <si>
-    <t>bestest_he_reporting.average_fuel_consumption</t>
-  </si>
-  <si>
-    <t>BESTEST Heating 061027b (fixing case 170)</t>
+    <t>BestestHeReporting</t>
+  </si>
+  <si>
+    <t>BestestSpaceHeatingEquipmentPerformance</t>
+  </si>
+  <si>
+    <t>Bestest Space Heating Equipment Performance</t>
+  </si>
+  <si>
+    <t>Bestest He Reporting</t>
+  </si>
+  <si>
+    <t>bestest_space_heating_equipment_performance</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.mean_zone_temperature</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.maximum_zone_temperature</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.minimum_zone_temperature</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.fan_energy</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.total_furnace_load</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.total_furnace_input</t>
+  </si>
+  <si>
+    <t>BestestHeReporting.average_fuel_consumption</t>
+  </si>
+  <si>
+    <t>BESTEST Heating 05122017_c (change output measure to camel case)</t>
   </si>
 </sst>
 </file>
@@ -2447,8 +2447,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1583">
+  <cellStyleXfs count="1585">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4131,7 +4133,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1583">
+  <cellStyles count="1585">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4923,6 +4925,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -5714,6 +5717,7 @@
     <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6015,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6645,7 +6649,7 @@
   <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6829,13 +6833,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>67</v>
@@ -6880,26 +6884,26 @@
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="43" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="37" t="s">
@@ -6922,10 +6926,10 @@
         <v>733</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>232</v>
@@ -8287,9 +8291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8624,14 +8628,14 @@
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1">
       <c r="A11" s="45" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B11" s="21"/>
       <c r="D11" s="45" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F11" s="45" t="s">
         <v>63</v>
@@ -8643,7 +8647,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -8652,14 +8656,14 @@
     </row>
     <row r="12" spans="1:13" s="22" customFormat="1">
       <c r="A12" s="45" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B12" s="21"/>
       <c r="D12" s="45" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F12" s="45" t="s">
         <v>63</v>
@@ -8671,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -8680,14 +8684,14 @@
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1">
       <c r="A13" s="45" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B13" s="21"/>
       <c r="D13" s="45" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F13" s="45" t="s">
         <v>63</v>
@@ -8699,7 +8703,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -8708,15 +8712,15 @@
     </row>
     <row r="14" spans="1:13" s="22" customFormat="1">
       <c r="A14" s="15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="45" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F14" s="45" t="s">
         <v>63</v>
@@ -8728,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -8737,7 +8741,7 @@
     </row>
     <row r="15" spans="1:13" s="22" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -8745,7 +8749,7 @@
         <v>739</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F15" s="45" t="s">
         <v>63</v>
@@ -8757,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
@@ -8766,7 +8770,7 @@
     </row>
     <row r="16" spans="1:13" s="21" customFormat="1">
       <c r="A16" s="15" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -8784,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
@@ -8793,7 +8797,7 @@
     </row>
     <row r="17" spans="1:13" s="21" customFormat="1">
       <c r="A17" s="15" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -8811,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
